--- a/정리.xlsx
+++ b/정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GDJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B8140D-3A8E-427E-B966-03BBB0FA217A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFFAC4D-F5A4-434E-B722-07A2AD53D53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{03C8312A-55A6-4B60-8CD2-86F36863D3AA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>long timestamp = System.currentTimeMillis();</t>
   </si>
@@ -144,10 +144,6 @@
   </si>
   <si>
     <t>charAt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbusting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -296,6 +292,18 @@
   </si>
   <si>
     <t>int name = (int)Math.random();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subusting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>split</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name = "12, 34" / String[] arr = name.split(","); =&gt; arr = {"aaa", "bbb", "jpg"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -400,6 +408,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -724,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3A93B3-D10D-4887-AB28-380B9C5D33CD}">
-  <dimension ref="A1:R143"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -739,7 +750,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="4"/>
@@ -763,30 +774,30 @@
       <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="4"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>64</v>
+      <c r="A4" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="6"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="4"/>
@@ -797,14 +808,14 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="4"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>28</v>
+      <c r="A8" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
@@ -812,37 +823,37 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
+      <c r="A14" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
@@ -850,380 +861,391 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="4"/>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="4"/>
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>38</v>
+      <c r="A20" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="4"/>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="4"/>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="4"/>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="4"/>
+      <c r="A25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="8"/>
       <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="4"/>
-    </row>
     <row r="28" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A28" s="9"/>
       <c r="B28" s="4"/>
       <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="4"/>
-    </row>
     <row r="31" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="A31" s="9"/>
       <c r="B31" s="4"/>
       <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="4"/>
-    </row>
     <row r="34" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="A34" s="9"/>
       <c r="B34" s="4"/>
       <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="4"/>
-    </row>
     <row r="37" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="A37" s="9"/>
       <c r="B37" s="4"/>
       <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="4"/>
-    </row>
     <row r="40" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="A40" s="9"/>
       <c r="B40" s="4"/>
       <c r="C40" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="4"/>
-    </row>
     <row r="43" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="A43" s="9"/>
       <c r="B43" s="4"/>
       <c r="C43" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="4"/>
-    </row>
     <row r="46" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="A46" s="9"/>
       <c r="B46" s="4"/>
       <c r="C46" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="1" t="s">
+    <row r="49" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
+    <row r="50" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+    </row>
+    <row r="54" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-    </row>
-    <row r="50" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-    </row>
-    <row r="51" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+      <c r="B55" s="4"/>
+      <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="1" t="s">
+    </row>
+    <row r="56" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-    </row>
-    <row r="56" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
-      <c r="C57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10"/>
+      <c r="C59" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10"/>
+      <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="C58" s="1" t="s">
+    <row r="61" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10"/>
+      <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
-      <c r="C59" s="1" t="s">
+    <row r="62" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-    </row>
-    <row r="61" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
+      <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="1" t="s">
+    </row>
+    <row r="64" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="C64" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="C62" s="1" t="s">
+    <row r="65" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9"/>
+    </row>
+    <row r="66" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-    </row>
-    <row r="64" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
+      <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="1" t="s">
+    </row>
+    <row r="67" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9"/>
+      <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="C65" s="1" t="s">
+    <row r="68" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9"/>
+      <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
-      <c r="C66" s="1" t="s">
+    <row r="69" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9"/>
+      <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="C67" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
-    </row>
-    <row r="69" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="9"/>
+    </row>
     <row r="71" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1297,28 +1319,31 @@
     <row r="141" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="142" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="143" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C49:J51"/>
+  <mergeCells count="21">
+    <mergeCell ref="C51:J53"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A63:A65"/>
     <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/정리.xlsx
+++ b/정리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GDJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFFAC4D-F5A4-434E-B722-07A2AD53D53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF8311B-996D-48C4-921A-C120AE57638C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{03C8312A-55A6-4B60-8CD2-86F36863D3AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03C8312A-55A6-4B60-8CD2-86F36863D3AA}"/>
   </bookViews>
   <sheets>
     <sheet name="01 ~ 05" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>long timestamp = System.currentTimeMillis();</t>
   </si>
@@ -304,6 +304,22 @@
   </si>
   <si>
     <t>name = "12, 34" / String[] arr = name.split(","); =&gt; arr = {"aaa", "bbb", "jpg"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;변수&gt; a = new ArrayList&lt;변수&gt;();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set&lt;변수&gt; a = new HashSet&lt;변수&gt;();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,13 +428,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -735,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3A93B3-D10D-4887-AB28-380B9C5D33CD}">
-  <dimension ref="A1:R145"/>
+  <dimension ref="A1:R146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -750,7 +766,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="4"/>
@@ -774,13 +790,13 @@
       <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="4"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="6"/>
@@ -791,13 +807,13 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="6"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="4"/>
@@ -808,13 +824,13 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="4"/>
@@ -823,36 +839,36 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="4"/>
@@ -861,36 +877,36 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="4"/>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="4"/>
@@ -902,7 +918,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="4"/>
       <c r="C21" s="1" t="s">
         <v>39</v>
@@ -912,7 +928,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="4"/>
       <c r="C22" s="1" t="s">
         <v>40</v>
@@ -922,7 +938,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="4"/>
       <c r="C23" s="1" t="s">
         <v>41</v>
@@ -932,11 +948,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="8"/>
@@ -945,11 +961,11 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="4"/>
@@ -958,18 +974,18 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="4"/>
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="4"/>
@@ -978,18 +994,18 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="4"/>
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="4"/>
@@ -998,18 +1014,18 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="4"/>
       <c r="C34" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="4"/>
@@ -1018,18 +1034,18 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="4"/>
       <c r="C37" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="4"/>
@@ -1038,18 +1054,18 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="4"/>
       <c r="C40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="4"/>
@@ -1058,18 +1074,18 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="4"/>
       <c r="C43" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B45" s="4"/>
@@ -1078,18 +1094,18 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="4"/>
       <c r="C46" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B48" s="4"/>
@@ -1098,62 +1114,62 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="4"/>
       <c r="C49" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
+      <c r="A50" s="10"/>
       <c r="B50" s="4"/>
     </row>
     <row r="51" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B51" s="5"/>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
     </row>
     <row r="52" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
     </row>
     <row r="53" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
     </row>
     <row r="54" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="4"/>
     </row>
     <row r="55" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="4"/>
@@ -1162,17 +1178,17 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="4"/>
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
+      <c r="A57" s="10"/>
     </row>
     <row r="58" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -1180,28 +1196,28 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="10"/>
+      <c r="A59" s="11"/>
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="10"/>
+      <c r="A60" s="11"/>
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="10"/>
+      <c r="A61" s="11"/>
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
+      <c r="A62" s="11"/>
     </row>
     <row r="63" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -1209,16 +1225,16 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
+      <c r="A64" s="10"/>
       <c r="C64" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9"/>
+      <c r="A65" s="10"/>
     </row>
     <row r="66" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -1226,31 +1242,49 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9"/>
+      <c r="A67" s="10"/>
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
+      <c r="A68" s="10"/>
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
+      <c r="A69" s="10"/>
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9"/>
+      <c r="A70" s="10"/>
     </row>
     <row r="71" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10"/>
+    </row>
+    <row r="74" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10"/>
+    </row>
+    <row r="75" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="76" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1321,16 +1355,10 @@
     <row r="143" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="144" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="145" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C51:J53"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A25:A26"/>
+  <mergeCells count="22">
+    <mergeCell ref="A72:A74"/>
     <mergeCell ref="A66:A70"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="A20:A24"/>
@@ -1344,6 +1372,14 @@
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A45:A47"/>
+    <mergeCell ref="C51:J53"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
